--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC2554-D543-489A-80ED-628CEC3A8E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF1FB2-68BC-44AB-A3B4-70508D95BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3102" yWindow="2010" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2742" yWindow="846" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RA Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Alpha</t>
   </si>
   <si>
-    <t>Beta</t>
-  </si>
-  <si>
     <t>Charlie</t>
   </si>
   <si>
@@ -46,6 +43,36 @@
   </si>
   <si>
     <t>Foxtrot</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Oscar</t>
   </si>
 </sst>
 </file>
@@ -379,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -495,34 +522,75 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF1FB2-68BC-44AB-A3B4-70508D95BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0021F7D-8F6A-49A4-B13A-B970369638CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2742" yWindow="846" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>RA Name</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Oscar</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -408,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -519,6 +522,81 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">

--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF1FB2-68BC-44AB-A3B4-70508D95BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0ADBF-FBDF-4FB3-9361-5A03F0227DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2742" yWindow="846" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1854" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,61 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>RA Name</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>Foxtrot</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>Kilo</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Oscar</t>
+    <t>Illa</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Morisu</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Caity</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Jayla</t>
+  </si>
+  <si>
+    <t>Dayana</t>
+  </si>
+  <si>
+    <t>Nyla</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hez</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel </t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Zach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +109,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -126,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -516,83 +540,116 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0ADBF-FBDF-4FB3-9361-5A03F0227DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB39BC-2024-4673-AD1F-7DB1B2404936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3750" yWindow="1854" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0021F7D-8F6A-49A4-B13A-B970369638CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B85943-3043-43F0-BE40-6ADEADEB2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2742" yWindow="846" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4086" yWindow="2190" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,64 +25,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>RA Name</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>Foxtrot</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>Kilo</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Illa</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Morisu</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Caity</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Jayla</t>
+  </si>
+  <si>
+    <t>Dayana</t>
+  </si>
+  <si>
+    <t>Nyla</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Hez</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel </t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>David SRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -129,6 +150,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -519,158 +543,116 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Availability/myAvailabilityExcelFile.xlsx
+++ b/Availability/myAvailabilityExcelFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\MITRE\RA_Duty_Scheduler\Availability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B85943-3043-43F0-BE40-6ADEADEB2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D6F4A-214C-4B57-9DAA-3375FD899C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4086" yWindow="2190" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1854" windowWidth="17568" windowHeight="9498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -149,7 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -433,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -543,115 +542,114 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF22">
-    <sortCondition ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
